--- a/lesmdm开发预演/社会化客户逻辑.xlsx
+++ b/lesmdm开发预演/社会化客户逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="大纲" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="申请导入" sheetId="7" r:id="rId7"/>
     <sheet name="所有智慧物流客户查询" sheetId="9" r:id="rId8"/>
     <sheet name="申请审批" sheetId="12" r:id="rId9"/>
+    <sheet name="审批" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>LES客户逻辑整理</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -210,6 +211,36 @@
     4 如果申请单的predefine_audit_by 有值，限定数据的predefine_audit_by
       为当前用户
     5 限定申请单的apply_group在当前用户的CustomerDepartment 分片中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交审核结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 如果有指定预定义审核人，校验当前用户是否是预定义审核人 如果不是 提示报错 3PLManager用户跳过该逻辑
+2 保存页面参数保存至后台，调用存储过程
+3 调用存储过程完毕，提示信息并调用回调函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到审批界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,22 +323,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,6 +699,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="0"/>
+          <a:ext cx="10047620" cy="4561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -955,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,6 +1072,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1005,9 +1084,270 @@
     <hyperlink ref="B3" location="申请维护!A1" display="申请维护"/>
     <hyperlink ref="B4" location="申请导入!A1" display="申请导入"/>
     <hyperlink ref="B5" location="所有智慧物流客户查询!A1" display="所有智慧物流客户查询"/>
+    <hyperlink ref="B6" location="申请审批!A1" display="申请审批"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C30:M46"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1030,162 +1370,162 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1242,169 +1582,169 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1452,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1504,7 +1844,7 @@
       <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1512,6 +1852,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D25" location="申请维护详细界面!A1" display="跳转到申请单信息详细界面"/>
+    <hyperlink ref="D30" location="审批!A1" display="提交到审批流程中"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1522,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C19:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1532,132 +1873,132 @@
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1683,96 +2024,96 @@
   </cols>
   <sheetData>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1832,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:J39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1854,132 +2195,143 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C28:J39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C42" location="审批!A1" display="跳转到审批界面"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
